--- a/_output/AM/UI Results/UI Result - b1(b) VS b1(a).xlsx
+++ b/_output/AM/UI Results/UI Result - b1(b) VS b1(a).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Feature</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Chi Square</t>
   </si>
   <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>Is Significant</t>
   </si>
   <si>
@@ -53,6 +59,54 @@
   </si>
   <si>
     <t>p10</t>
+  </si>
+  <si>
+    <t>[505  84] ; [283 105]</t>
+  </si>
+  <si>
+    <t>[485 117] ; [266 132]</t>
+  </si>
+  <si>
+    <t>[505  88] ; [295 101]</t>
+  </si>
+  <si>
+    <t>[566  31] ; [347  47]</t>
+  </si>
+  <si>
+    <t>[446 153] ; [250 146]</t>
+  </si>
+  <si>
+    <t>[559  32] ; [348  45]</t>
+  </si>
+  <si>
+    <t>[531  71] ; [320  78]</t>
+  </si>
+  <si>
+    <t>[475 114] ; [279 111]</t>
+  </si>
+  <si>
+    <t>[475.05834186 113.94165814] ; [312.94165814  75.05834186]</t>
+  </si>
+  <si>
+    <t>[452.102 149.898] ; [298.898  99.102]</t>
+  </si>
+  <si>
+    <t>[479.67644085 113.32355915] ; [320.32355915  75.67644085]</t>
+  </si>
+  <si>
+    <t>[550.0110999  46.9889001] ; [362.9889001  31.0110999]</t>
+  </si>
+  <si>
+    <t>[418.99899497 180.00100503] ; [277.00100503 118.99899497]</t>
+  </si>
+  <si>
+    <t>[544.75304878  46.24695122] ; [362.24695122  30.75304878]</t>
+  </si>
+  <si>
+    <t>[512.302  89.698] ; [338.698  59.302]</t>
+  </si>
+  <si>
+    <t>[453.63227783 135.36772217] ; [300.36772217  89.63227783]</t>
   </si>
 </sst>
 </file>
@@ -410,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,13 +486,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -449,16 +509,22 @@
       <c r="E2">
         <v>24.564071</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -469,16 +535,22 @@
       <c r="E3">
         <v>24.155729</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -489,16 +561,22 @@
       <c r="E4">
         <v>17.471762</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -509,16 +587,22 @@
       <c r="E5">
         <v>14.853275</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -529,16 +613,22 @@
       <c r="E6">
         <v>14.548783</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -549,16 +639,22 @@
       <c r="E7">
         <v>11.922055</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -569,16 +665,22 @@
       <c r="E8">
         <v>11.507869</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -589,7 +691,13 @@
       <c r="E9">
         <v>10.993368</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
     </row>
